--- a/data/TD6.xlsx
+++ b/data/TD6.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="322">
   <si>
     <t>Liên Hệ</t>
   </si>
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>26/11/2025</t>
+    <t>17/12/2025</t>
   </si>
   <si>
     <t>TD6</t>
@@ -4991,7 +4991,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF32B87-0276-EF4E-963C-ED48B34C3BF9}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -5003,6 +5003,960 @@
     <col min="1" max="1" customWidth="true" style="3" width="50.83203125"/>
     <col min="2" max="2" customWidth="true" width="17.453125" bestFit="true"/>
     <col min="4" max="4" customWidth="true" width="17.453125" bestFit="true"/>
+    <col min="5" max="5" customWidth="true" width="18.5390625" bestFit="true"/>
+    <col min="6" max="6" customWidth="true" width="17.453125" bestFit="true"/>
+    <col min="7" max="7" customWidth="true" width="17.453125" bestFit="true"/>
+    <col min="8" max="8" customWidth="true" width="7.1640625"/>
+    <col min="9" max="9" customWidth="true" width="8.6640625"/>
+    <col min="10" max="10" customWidth="true" width="14.33203125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6" t="n">
+        <v>2024.0</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="21" t="n">
+        <v>6.3693678617E10</v>
+      </c>
+      <c r="D12" s="21" t="n">
+        <v>4.3422914379E10</v>
+      </c>
+      <c r="E12" s="21" t="n">
+        <v>9.750440946E9</v>
+      </c>
+      <c r="F12" s="21" t="n">
+        <v>7.395191275E9</v>
+      </c>
+      <c r="G12" s="21" t="n">
+        <v>1.0241138799E10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="21" t="n">
+        <v>1.01671359988E11</v>
+      </c>
+      <c r="D13" s="21" t="n">
+        <v>5.5363425725E10</v>
+      </c>
+      <c r="E13" s="21" t="n">
+        <v>5.3449281286E10</v>
+      </c>
+      <c r="F13" s="21" t="n">
+        <v>5.3721717916E10</v>
+      </c>
+      <c r="G13" s="21" t="n">
+        <v>5.5161768865E10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D14" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E14" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F14" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="21" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="21" t="n">
+        <v>1.754047E8</v>
+      </c>
+      <c r="D15" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E15" s="21" t="n">
+        <v>1.02426944534E12</v>
+      </c>
+      <c r="F15" s="21" t="n">
+        <v>-3.6153162445E10</v>
+      </c>
+      <c r="G15" s="21" t="n">
+        <v>-2.28287212027E11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D16" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E16" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F16" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G16" s="21" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D17" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E17" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F17" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G17" s="21" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" s="21" t="n">
+        <v>8.044612172E9</v>
+      </c>
+      <c r="D18" s="21" t="n">
+        <v>8.108684514E9</v>
+      </c>
+      <c r="E18" s="21" t="n">
+        <v>3.4508958E7</v>
+      </c>
+      <c r="F18" s="21" t="n">
+        <v>-6.948858199E9</v>
+      </c>
+      <c r="G18" s="21" t="n">
+        <v>1.3855292E7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" s="21" t="n">
+        <v>2.1053249615E10</v>
+      </c>
+      <c r="D19" s="21" t="n">
+        <v>9.170149541E9</v>
+      </c>
+      <c r="E19" s="21" t="n">
+        <v>1.5841096616E10</v>
+      </c>
+      <c r="F19" s="21" t="n">
+        <v>1.284783096E10</v>
+      </c>
+      <c r="G19" s="21" t="n">
+        <v>1.2738566282E10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B20" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D20" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E20" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F20" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G20" s="21" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21" s="21" t="n">
+        <v>-6.031175915E9</v>
+      </c>
+      <c r="D21" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E21" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F21" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G21" s="21" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="B22" s="21" t="n">
+        <v>1.20654032489E11</v>
+      </c>
+      <c r="D22" s="21" t="n">
+        <v>-3.16348040865E11</v>
+      </c>
+      <c r="E22" s="21" t="n">
+        <v>5.0494596364E10</v>
+      </c>
+      <c r="F22" s="21" t="n">
+        <v>2.57624294695E11</v>
+      </c>
+      <c r="G22" s="21" t="n">
+        <v>-5.810335352E9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="B23" s="21" t="n">
+        <v>1.88607129177E11</v>
+      </c>
+      <c r="D23" s="21" t="n">
+        <v>1.16065174159E11</v>
+      </c>
+      <c r="E23" s="21" t="n">
+        <v>1.103344773146E12</v>
+      </c>
+      <c r="F23" s="21" t="n">
+        <v>3.0862719507E10</v>
+      </c>
+      <c r="G23" s="21" t="n">
+        <v>-1.50131882789E11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="B24" s="21" t="n">
+        <v>-6.2110061405E10</v>
+      </c>
+      <c r="D24" s="21" t="n">
+        <v>-3.58063911972E11</v>
+      </c>
+      <c r="E24" s="21" t="n">
+        <v>-2.54649999557E11</v>
+      </c>
+      <c r="F24" s="21" t="n">
+        <v>1.8151488852E11</v>
+      </c>
+      <c r="G24" s="21" t="n">
+        <v>2.40730620557E11</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="B25" s="21" t="n">
+        <v>2.5961383465E10</v>
+      </c>
+      <c r="D25" s="21" t="n">
+        <v>1.47885938343E11</v>
+      </c>
+      <c r="E25" s="21" t="n">
+        <v>-6.50554235393E11</v>
+      </c>
+      <c r="F25" s="21" t="n">
+        <v>1.84580273374E11</v>
+      </c>
+      <c r="G25" s="21" t="n">
+        <v>-2.2748069453E10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B26" s="21" t="n">
+        <v>-1.3800766495E11</v>
+      </c>
+      <c r="D26" s="21" t="n">
+        <v>-2.76306702343E11</v>
+      </c>
+      <c r="E26" s="21" t="n">
+        <v>-1.37270833265E11</v>
+      </c>
+      <c r="F26" s="21" t="n">
+        <v>-6.4003628734E10</v>
+      </c>
+      <c r="G26" s="21" t="n">
+        <v>-6.9889913536E10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" s="21" t="n">
+        <v>1.44614791096E11</v>
+      </c>
+      <c r="D27" s="21" t="n">
+        <v>6.9132751227E10</v>
+      </c>
+      <c r="E27" s="21" t="n">
+        <v>2.1909882084E10</v>
+      </c>
+      <c r="F27" s="21" t="n">
+        <v>-5.6565980018E10</v>
+      </c>
+      <c r="G27" s="21" t="n">
+        <v>1.6120674026E10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B28" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D28" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E28" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F28" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G28" s="21" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="B29" s="21" t="n">
+        <v>-2.0813534114E10</v>
+      </c>
+      <c r="D29" s="21" t="n">
+        <v>-8.985899499E9</v>
+      </c>
+      <c r="E29" s="21" t="n">
+        <v>-1.6096384694E10</v>
+      </c>
+      <c r="F29" s="21" t="n">
+        <v>-1.2793232125E10</v>
+      </c>
+      <c r="G29" s="21" t="n">
+        <v>-1.2793165117E10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="B30" s="21" t="n">
+        <v>-9.0E9</v>
+      </c>
+      <c r="D30" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E30" s="21" t="n">
+        <v>-1.0014566527E10</v>
+      </c>
+      <c r="F30" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G30" s="21" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="B31" s="21" t="n">
+        <v>8.445E8</v>
+      </c>
+      <c r="D31" s="21" t="n">
+        <v>3.28E8</v>
+      </c>
+      <c r="E31" s="21" t="n">
+        <v>4.24E8</v>
+      </c>
+      <c r="F31" s="21" t="n">
+        <v>1.921E8</v>
+      </c>
+      <c r="G31" s="21" t="n">
+        <v>5.925E8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B32" s="21" t="n">
+        <v>-9.44251078E9</v>
+      </c>
+      <c r="D32" s="21" t="n">
+        <v>-6.40339078E9</v>
+      </c>
+      <c r="E32" s="21" t="n">
+        <v>-6.59803943E9</v>
+      </c>
+      <c r="F32" s="21" t="n">
+        <v>-6.162845829E9</v>
+      </c>
+      <c r="G32" s="21" t="n">
+        <v>-7.69109904E9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="B33" s="21" t="n">
+        <v>-2.4360833729E11</v>
+      </c>
+      <c r="D33" s="21" t="n">
+        <v>-2.20424488331E11</v>
+      </c>
+      <c r="E33" s="21" t="n">
+        <v>-1.38639978158E11</v>
+      </c>
+      <c r="F33" s="21" t="n">
+        <v>6.56459511E8</v>
+      </c>
+      <c r="G33" s="21" t="n">
+        <v>-5.1433198431E10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="B34" s="21" t="n">
+        <v>-2.43636503774E11</v>
+      </c>
+      <c r="D34" s="21" t="n">
+        <v>-2.20388582473E11</v>
+      </c>
+      <c r="E34" s="21" t="n">
+        <v>-1.386054692E11</v>
+      </c>
+      <c r="F34" s="21" t="n">
+        <v>-6.292398688E9</v>
+      </c>
+      <c r="G34" s="21" t="n">
+        <v>-5.1419343139E10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="B35" s="21" t="n">
+        <v>-8.6954724E7</v>
+      </c>
+      <c r="D35" s="21" t="n">
+        <v>-8.6954724E7</v>
+      </c>
+      <c r="E35" s="21" t="n">
+        <v>-6.028046E7</v>
+      </c>
+      <c r="F35" s="21" t="n">
+        <v>6.925E9</v>
+      </c>
+      <c r="G35" s="21" t="n">
+        <v>-4.3906E7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="B36" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D36" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E36" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F36" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G36" s="21" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="B37" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D37" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E37" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F37" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G37" s="21" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="B38" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D38" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E38" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F38" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G38" s="21" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="B39" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D39" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E39" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F39" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G39" s="21" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="B40" s="21" t="n">
+        <v>1.15121208E8</v>
+      </c>
+      <c r="D40" s="21" t="n">
+        <v>5.1048866E7</v>
+      </c>
+      <c r="E40" s="21" t="n">
+        <v>2.5771502E7</v>
+      </c>
+      <c r="F40" s="21" t="n">
+        <v>2.3858199E7</v>
+      </c>
+      <c r="G40" s="21" t="n">
+        <v>3.0050708E7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="B41" s="21" t="n">
+        <v>1.3235419146E11</v>
+      </c>
+      <c r="D41" s="21" t="n">
+        <v>3.69397743811E11</v>
+      </c>
+      <c r="E41" s="21" t="n">
+        <v>8.5492537341E10</v>
+      </c>
+      <c r="F41" s="21" t="n">
+        <v>-2.59573267308E11</v>
+      </c>
+      <c r="G41" s="21" t="n">
+        <v>6.2281735679E10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="B42" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D42" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E42" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F42" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G42" s="21" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="B43" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D43" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E43" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F43" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G43" s="21" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="B44" s="21" t="n">
+        <v>5.71541249996E11</v>
+      </c>
+      <c r="D44" s="21" t="n">
+        <v>5.71541249996E11</v>
+      </c>
+      <c r="E44" s="21" t="n">
+        <v>4.347958E11</v>
+      </c>
+      <c r="F44" s="21" t="n">
+        <v>1.85950559122E11</v>
+      </c>
+      <c r="G44" s="21" t="n">
+        <v>2.00412686439E11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B45" s="21" t="n">
+        <v>-4.38480490036E11</v>
+      </c>
+      <c r="D45" s="21" t="n">
+        <v>-2.02094445785E11</v>
+      </c>
+      <c r="E45" s="21" t="n">
+        <v>-3.49284457859E11</v>
+      </c>
+      <c r="F45" s="21" t="n">
+        <v>-4.4552382643E11</v>
+      </c>
+      <c r="G45" s="21" t="n">
+        <v>-1.1947846156E11</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="B46" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D46" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E46" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F46" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G46" s="21" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="B47" s="21" t="n">
+        <v>-7.065685E8</v>
+      </c>
+      <c r="D47" s="21" t="n">
+        <v>-4.90604E7</v>
+      </c>
+      <c r="E47" s="21" t="n">
+        <v>-1.88048E7</v>
+      </c>
+      <c r="F47" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G47" s="21" t="n">
+        <v>-1.86524892E10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="B48" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D48" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E48" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F48" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G48" s="21" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="B49" s="21" t="n">
+        <v>9.399886659E9</v>
+      </c>
+      <c r="D49" s="21" t="n">
+        <v>-1.67374785385E11</v>
+      </c>
+      <c r="E49" s="21" t="n">
+        <v>-2.652844453E9</v>
+      </c>
+      <c r="F49" s="21" t="n">
+        <v>-1.292513102E9</v>
+      </c>
+      <c r="G49" s="21" t="n">
+        <v>5.038201896E9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="B50" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D50" s="21" t="n">
+        <v>1.76774672044E11</v>
+      </c>
+      <c r="E50" s="21" t="n">
+        <v>9.399886659E9</v>
+      </c>
+      <c r="F50" s="21" t="n">
+        <v>6.747042206E9</v>
+      </c>
+      <c r="G50" s="21" t="n">
+        <v>5.454529104E9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="B51" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D51" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E51" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F51" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G51" s="21" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="B52" s="21" t="n">
+        <v>9.399886659E9</v>
+      </c>
+      <c r="D52" s="21" t="n">
+        <v>9.399886659E9</v>
+      </c>
+      <c r="E52" s="21" t="n">
+        <v>6.747042206E9</v>
+      </c>
+      <c r="F52" s="21" t="n">
+        <v>5.454529104E9</v>
+      </c>
+      <c r="G52" s="21" t="n">
+        <v>1.0492731E10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="8"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="8"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D10:G10"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A58" r:id="rId1" display="https://www.vietcap.com.vn/" xr:uid="{2404128C-51EF-8E44-9BE0-4A8D207DD5D8}"/>
+    <hyperlink ref="A59" r:id="rId2" display="mailto:info@vietcap.com.vn" xr:uid="{296DDDA3-51A9-264A-87DA-7E429B6993FF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACDB1F9-64B2-F64B-91A6-B0AAFF7D49C4}">
+  <dimension ref="A1:E176"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" customWidth="true" width="18.5390625" bestFit="true"/>
+    <col min="1" max="1" customWidth="true" style="3" width="50.83203125"/>
+    <col min="2" max="2" customWidth="true" width="12.66796875" bestFit="true"/>
+    <col min="3" max="3" customWidth="true" width="18.5390625" bestFit="true"/>
     <col min="5" max="5" customWidth="true" width="18.5390625" bestFit="true"/>
     <col min="6" max="6" customWidth="true" width="11.5"/>
     <col min="7" max="7" customWidth="true" width="10.83203125"/>
@@ -5049,1496 +6003,2220 @@
     </row>
     <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-      <c r="B11" s="6" t="n">
-        <v>2024.0</v>
+      <c r="C11" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="B12" s="21" t="n">
-        <v>6.3693678617E10</v>
-      </c>
-      <c r="D12" s="21" t="n">
-        <v>4.3422914379E10</v>
-      </c>
-      <c r="E12" s="21" t="n">
-        <v>9.750440946E9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="B13" s="21" t="n">
-        <v>1.01671359988E11</v>
-      </c>
-      <c r="D13" s="21" t="n">
-        <v>5.5363425725E10</v>
-      </c>
-      <c r="E13" s="21" t="n">
-        <v>5.3449281286E10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="B14" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D14" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E14" s="21" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="B15" s="21" t="n">
-        <v>1.754047E8</v>
-      </c>
-      <c r="D15" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E15" s="21" t="n">
-        <v>1.02426944534E12</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="B16" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D16" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E16" s="21" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="B17" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D17" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E17" s="21" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="B18" s="21" t="n">
-        <v>8.044612172E9</v>
-      </c>
-      <c r="D18" s="21" t="n">
-        <v>8.108684514E9</v>
-      </c>
-      <c r="E18" s="21" t="n">
-        <v>3.4508958E7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="B19" s="21" t="n">
-        <v>2.1053249615E10</v>
-      </c>
-      <c r="D19" s="21" t="n">
-        <v>9.170149541E9</v>
-      </c>
-      <c r="E19" s="21" t="n">
-        <v>1.5841096616E10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="B20" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D20" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E20" s="21" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="B21" s="21" t="n">
-        <v>-6.031175915E9</v>
-      </c>
-      <c r="D21" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E21" s="21" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="B22" s="21" t="n">
-        <v>1.20654032489E11</v>
-      </c>
-      <c r="D22" s="21" t="n">
-        <v>-3.16348040865E11</v>
-      </c>
-      <c r="E22" s="21" t="n">
-        <v>5.0494596364E10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="B23" s="21" t="n">
-        <v>1.88607129177E11</v>
-      </c>
-      <c r="D23" s="21" t="n">
-        <v>1.16065174159E11</v>
-      </c>
-      <c r="E23" s="21" t="n">
-        <v>1.103344773146E12</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="B24" s="21" t="n">
-        <v>-6.2110061405E10</v>
-      </c>
-      <c r="D24" s="21" t="n">
-        <v>-3.58063911972E11</v>
-      </c>
-      <c r="E24" s="21" t="n">
-        <v>-2.54649999557E11</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="B25" s="21" t="n">
-        <v>2.5961383465E10</v>
-      </c>
-      <c r="D25" s="21" t="n">
-        <v>1.47885938343E11</v>
-      </c>
-      <c r="E25" s="21" t="n">
-        <v>-6.50554235393E11</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="B26" s="21" t="n">
-        <v>-1.3800766495E11</v>
-      </c>
-      <c r="D26" s="21" t="n">
-        <v>-2.76306702343E11</v>
-      </c>
-      <c r="E26" s="21" t="n">
-        <v>-1.37270833265E11</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="B27" s="21" t="n">
-        <v>1.44614791096E11</v>
-      </c>
-      <c r="D27" s="21" t="n">
-        <v>6.9132751227E10</v>
-      </c>
-      <c r="E27" s="21" t="n">
-        <v>2.1909882084E10</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="B28" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D28" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E28" s="21" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="B29" s="21" t="n">
-        <v>-2.0813534114E10</v>
-      </c>
-      <c r="D29" s="21" t="n">
-        <v>-8.985899499E9</v>
-      </c>
-      <c r="E29" s="21" t="n">
-        <v>-1.6096384694E10</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="B30" s="21" t="n">
-        <v>-9.0E9</v>
-      </c>
-      <c r="D30" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E30" s="21" t="n">
-        <v>-1.0014566527E10</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="B31" s="21" t="n">
-        <v>8.445E8</v>
-      </c>
-      <c r="D31" s="21" t="n">
-        <v>3.28E8</v>
-      </c>
-      <c r="E31" s="21" t="n">
-        <v>4.24E8</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="B32" s="21" t="n">
-        <v>-9.44251078E9</v>
-      </c>
-      <c r="D32" s="21" t="n">
-        <v>-6.40339078E9</v>
-      </c>
-      <c r="E32" s="21" t="n">
-        <v>-6.59803943E9</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="B33" s="21" t="n">
-        <v>-2.4360833729E11</v>
-      </c>
-      <c r="D33" s="21" t="n">
-        <v>-2.20424488331E11</v>
-      </c>
-      <c r="E33" s="21" t="n">
-        <v>-1.38639978158E11</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="B34" s="21" t="n">
-        <v>-2.43636503774E11</v>
-      </c>
-      <c r="D34" s="21" t="n">
-        <v>-2.20388582473E11</v>
-      </c>
-      <c r="E34" s="21" t="n">
-        <v>-1.386054692E11</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="B35" s="21" t="n">
-        <v>-8.6954724E7</v>
-      </c>
-      <c r="D35" s="21" t="n">
-        <v>-8.6954724E7</v>
-      </c>
-      <c r="E35" s="21" t="n">
-        <v>-6.028046E7</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="B36" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D36" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E36" s="21" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="B37" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D37" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E37" s="21" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="B38" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D38" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E38" s="21" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="B39" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D39" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E39" s="21" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="B40" s="21" t="n">
-        <v>1.15121208E8</v>
-      </c>
-      <c r="D40" s="21" t="n">
-        <v>5.1048866E7</v>
-      </c>
-      <c r="E40" s="21" t="n">
-        <v>2.5771502E7</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="B41" s="21" t="n">
-        <v>1.3235419146E11</v>
-      </c>
-      <c r="D41" s="21" t="n">
-        <v>3.69397743811E11</v>
-      </c>
-      <c r="E41" s="21" t="n">
-        <v>8.5492537341E10</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="B42" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D42" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E42" s="21" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="B43" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D43" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E43" s="21" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="B44" s="21" t="n">
-        <v>5.71541249996E11</v>
-      </c>
-      <c r="D44" s="21" t="n">
-        <v>5.71541249996E11</v>
-      </c>
-      <c r="E44" s="21" t="n">
-        <v>4.347958E11</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="B45" s="21" t="n">
-        <v>-4.38480490036E11</v>
-      </c>
-      <c r="D45" s="21" t="n">
-        <v>-2.02094445785E11</v>
-      </c>
-      <c r="E45" s="21" t="n">
-        <v>-3.49284457859E11</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="B46" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D46" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E46" s="21" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="B47" s="21" t="n">
-        <v>-7.065685E8</v>
-      </c>
-      <c r="D47" s="21" t="n">
-        <v>-4.90604E7</v>
-      </c>
-      <c r="E47" s="21" t="n">
-        <v>-1.88048E7</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="B48" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D48" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E48" s="21" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="B49" s="21" t="n">
-        <v>9.399886659E9</v>
-      </c>
-      <c r="D49" s="21" t="n">
-        <v>-1.67374785385E11</v>
-      </c>
-      <c r="E49" s="21" t="n">
-        <v>-2.652844453E9</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="B50" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D50" s="21" t="n">
-        <v>1.76774672044E11</v>
-      </c>
-      <c r="E50" s="21" t="n">
-        <v>9.399886659E9</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="B51" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D51" s="21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E51" s="21" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="B52" s="21" t="n">
-        <v>9.399886659E9</v>
-      </c>
-      <c r="D52" s="21" t="n">
-        <v>9.399886659E9</v>
-      </c>
-      <c r="E52" s="21" t="n">
-        <v>6.747042206E9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B58" s="8"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" s="8"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B60" s="8"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D10:E10"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A58" r:id="rId1" display="https://www.vietcap.com.vn/" xr:uid="{2404128C-51EF-8E44-9BE0-4A8D207DD5D8}"/>
-    <hyperlink ref="A59" r:id="rId2" display="mailto:info@vietcap.com.vn" xr:uid="{296DDDA3-51A9-264A-87DA-7E429B6993FF}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <drawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACDB1F9-64B2-F64B-91A6-B0AAFF7D49C4}">
-  <dimension ref="A1:D176"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="50.83203125"/>
-    <col min="2" max="2" customWidth="true" width="12.66796875" bestFit="true"/>
-    <col min="3" max="4" customWidth="true" width="12.5"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125"/>
-    <col min="6" max="6" customWidth="true" width="11.5"/>
-    <col min="7" max="7" customWidth="true" width="10.83203125"/>
-    <col min="8" max="8" customWidth="true" width="7.1640625"/>
-    <col min="9" max="9" customWidth="true" width="8.6640625"/>
-    <col min="10" max="10" customWidth="true" width="14.33203125"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="28" t="s">
         <v>21</v>
       </c>
+      <c r="C12" s="25" t="n">
+        <v>6.747042206E9</v>
+      </c>
+      <c r="D12" s="25" t="n">
+        <v>5.454529104E9</v>
+      </c>
+      <c r="E12" s="25" t="n">
+        <v>1.0492731E10</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="26" t="s">
         <v>202</v>
       </c>
+      <c r="C13" s="25" t="n">
+        <v>2.582775922E9</v>
+      </c>
+      <c r="D13" s="25" t="n">
+        <v>5.49324595E8</v>
+      </c>
+      <c r="E13" s="25" t="n">
+        <v>2.263752604E9</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="26" t="s">
         <v>203</v>
       </c>
+      <c r="C14" s="25" t="n">
+        <v>4.164266284E9</v>
+      </c>
+      <c r="D14" s="25" t="n">
+        <v>4.905204509E9</v>
+      </c>
+      <c r="E14" s="25" t="n">
+        <v>8.228978396E9</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="26" t="s">
         <v>204</v>
       </c>
+      <c r="C15" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D15" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E15" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="26" t="s">
         <v>21</v>
       </c>
+      <c r="C16" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D16" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E16" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="26" t="s">
         <v>205</v>
       </c>
+      <c r="C17" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D17" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E17" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="28" t="s">
         <v>206</v>
       </c>
+      <c r="C18" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D18" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E18" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="26" t="s">
         <v>26</v>
       </c>
+      <c r="C19" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D19" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E19" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="26" t="s">
         <v>24</v>
       </c>
+      <c r="C20" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D20" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E20" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="26" t="s">
         <v>70</v>
       </c>
+      <c r="C21" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D21" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E21" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="26" t="s">
         <v>207</v>
       </c>
+      <c r="C22" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D22" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E22" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="26" t="s">
         <v>208</v>
       </c>
+      <c r="C23" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D23" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E23" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="28" t="s">
         <v>209</v>
       </c>
+      <c r="C24" s="25" t="n">
+        <v>1.205740541E9</v>
+      </c>
+      <c r="D24" s="25" t="n">
+        <v>3.59532748E8</v>
+      </c>
+      <c r="E24" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="26" t="s">
         <v>210</v>
       </c>
+      <c r="C25" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D25" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E25" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="26" t="s">
         <v>211</v>
       </c>
+      <c r="C26" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D26" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E26" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="26" t="s">
         <v>212</v>
       </c>
+      <c r="C27" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D27" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E27" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="26" t="s">
         <v>33</v>
       </c>
+      <c r="C28" s="25" t="n">
+        <v>1.205740541E9</v>
+      </c>
+      <c r="D28" s="25" t="n">
+        <v>3.59532748E8</v>
+      </c>
+      <c r="E28" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="28" t="s">
         <v>37</v>
       </c>
+      <c r="C29" s="25" t="n">
+        <v>1.261041387496E12</v>
+      </c>
+      <c r="D29" s="25" t="n">
+        <v>1.076461114122E12</v>
+      </c>
+      <c r="E29" s="25" t="n">
+        <v>1.099209183575E12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="26" t="s">
         <v>213</v>
       </c>
+      <c r="C30" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D30" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E30" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="26" t="s">
         <v>214</v>
       </c>
+      <c r="C31" s="25" t="n">
+        <v>3.6553181427E10</v>
+      </c>
+      <c r="D31" s="25" t="n">
+        <v>2.8640864136E10</v>
+      </c>
+      <c r="E31" s="25" t="n">
+        <v>3.1882832531E10</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="26" t="s">
         <v>215</v>
       </c>
+      <c r="C32" s="25" t="n">
+        <v>6.42755E7</v>
+      </c>
+      <c r="D32" s="25" t="n">
+        <v>5.03105E7</v>
+      </c>
+      <c r="E32" s="25" t="n">
+        <v>8.5029593E7</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="26" t="s">
         <v>216</v>
       </c>
+      <c r="C33" s="25" t="n">
+        <v>1.189564054215E12</v>
+      </c>
+      <c r="D33" s="25" t="n">
+        <v>9.72273674171E11</v>
+      </c>
+      <c r="E33" s="25" t="n">
+        <v>9.29454286232E11</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="26" t="s">
         <v>217</v>
       </c>
+      <c r="C34" s="25" t="n">
+        <v>3.4859876354E10</v>
+      </c>
+      <c r="D34" s="25" t="n">
+        <v>7.5496265315E10</v>
+      </c>
+      <c r="E34" s="25" t="n">
+        <v>1.37787035219E11</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="26" t="s">
         <v>218</v>
       </c>
+      <c r="C35" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D35" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E35" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="26" t="s">
         <v>219</v>
       </c>
+      <c r="C36" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D36" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E36" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="26" t="s">
         <v>220</v>
       </c>
+      <c r="C37" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D37" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E37" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="26" t="s">
         <v>221</v>
       </c>
+      <c r="C38" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D38" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E38" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="28" t="s">
         <v>222</v>
       </c>
+      <c r="C39" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D39" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E39" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="26" t="s">
         <v>223</v>
       </c>
+      <c r="C40" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D40" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E40" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="26" t="s">
         <v>224</v>
       </c>
+      <c r="C41" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D41" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E41" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="26" t="s">
         <v>225</v>
       </c>
+      <c r="C42" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D42" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E42" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="26" t="s">
         <v>226</v>
       </c>
+      <c r="C43" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D43" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E43" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="28" t="s">
         <v>51</v>
       </c>
+      <c r="C44" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D44" s="25" t="n">
+        <v>2.79550958165E11</v>
+      </c>
+      <c r="E44" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="26" t="s">
         <v>227</v>
       </c>
+      <c r="C45" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D45" s="25" t="n">
+        <v>2.79550958165E11</v>
+      </c>
+      <c r="E45" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="26" t="s">
         <v>228</v>
       </c>
+      <c r="C46" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D46" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E46" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="26" t="s">
         <v>229</v>
       </c>
+      <c r="C47" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D47" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E47" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="26" t="s">
         <v>51</v>
       </c>
+      <c r="C48" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D48" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E48" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="28" t="s">
         <v>230</v>
       </c>
+      <c r="C49" s="25" t="n">
+        <v>5.643105491741E12</v>
+      </c>
+      <c r="D49" s="25" t="n">
+        <v>5.423519903465E12</v>
+      </c>
+      <c r="E49" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="26" t="s">
         <v>231</v>
       </c>
+      <c r="C50" s="25" t="n">
+        <v>5.498161556329E12</v>
+      </c>
+      <c r="D50" s="25" t="n">
+        <v>5.498161556329E12</v>
+      </c>
+      <c r="E50" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="26" t="s">
         <v>232</v>
       </c>
+      <c r="C51" s="25" t="n">
+        <v>1.482365532E11</v>
+      </c>
+      <c r="D51" s="25" t="n">
+        <v>1.49848464134E11</v>
+      </c>
+      <c r="E51" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="26" t="s">
         <v>233</v>
       </c>
+      <c r="C52" s="25" t="n">
+        <v>-3.292617788E9</v>
+      </c>
+      <c r="D52" s="25" t="n">
+        <v>-2.24490116998E11</v>
+      </c>
+      <c r="E52" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="28" t="s">
         <v>234</v>
       </c>
+      <c r="C53" s="25" t="n">
+        <v>4.712624288872E12</v>
+      </c>
+      <c r="D53" s="25" t="n">
+        <v>4.545547272394E12</v>
+      </c>
+      <c r="E53" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="26" t="s">
         <v>235</v>
       </c>
+      <c r="C54" s="25" t="n">
+        <v>4.662077315558E12</v>
+      </c>
+      <c r="D54" s="25" t="n">
+        <v>4.662077315558E12</v>
+      </c>
+      <c r="E54" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="26" t="s">
         <v>232</v>
       </c>
+      <c r="C55" s="25" t="n">
+        <v>5.3839591102E10</v>
+      </c>
+      <c r="D55" s="25" t="n">
+        <v>1.07951618834E11</v>
+      </c>
+      <c r="E55" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="26" t="s">
         <v>233</v>
       </c>
+      <c r="C56" s="25" t="n">
+        <v>-3.292617788E9</v>
+      </c>
+      <c r="D56" s="25" t="n">
+        <v>-2.24481661998E11</v>
+      </c>
+      <c r="E56" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="28" t="s">
         <v>236</v>
       </c>
+      <c r="C57" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D57" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E57" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="26" t="s">
         <v>231</v>
       </c>
+      <c r="C58" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D58" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E58" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="26" t="s">
         <v>232</v>
       </c>
+      <c r="C59" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D59" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E59" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="26" t="s">
         <v>233</v>
       </c>
+      <c r="C60" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D60" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E60" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="28" t="s">
         <v>237</v>
       </c>
+      <c r="C61" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D61" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E61" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="26" t="s">
         <v>235</v>
       </c>
+      <c r="C62" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D62" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E62" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="26" t="s">
         <v>232</v>
       </c>
+      <c r="C63" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D63" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E63" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="26" t="s">
         <v>233</v>
       </c>
+      <c r="C64" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D64" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E64" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="28" t="s">
         <v>238</v>
       </c>
+      <c r="C65" s="25" t="n">
+        <v>3.398981707E9</v>
+      </c>
+      <c r="D65" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E65" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="26" t="s">
         <v>231</v>
       </c>
+      <c r="C66" s="25" t="n">
+        <v>3.398981707E9</v>
+      </c>
+      <c r="D66" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E66" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="26" t="s">
         <v>232</v>
       </c>
+      <c r="C67" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D67" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E67" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="26" t="s">
         <v>233</v>
       </c>
+      <c r="C68" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D68" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E68" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="28" t="s">
         <v>239</v>
       </c>
+      <c r="C69" s="25" t="n">
+        <v>3.134359943E9</v>
+      </c>
+      <c r="D69" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E69" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="26" t="s">
         <v>235</v>
       </c>
+      <c r="C70" s="25" t="n">
+        <v>3.112088612E9</v>
+      </c>
+      <c r="D70" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E70" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="26" t="s">
         <v>232</v>
       </c>
+      <c r="C71" s="25" t="n">
+        <v>2.2271331E7</v>
+      </c>
+      <c r="D71" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E71" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="26" t="s">
         <v>233</v>
       </c>
+      <c r="C72" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D72" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E72" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="28" t="s">
         <v>73</v>
       </c>
+      <c r="C73" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D73" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E73" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="26" t="s">
         <v>240</v>
       </c>
+      <c r="C74" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D74" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E74" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="26" t="s">
         <v>241</v>
       </c>
+      <c r="C75" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D75" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E75" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="26" t="s">
         <v>242</v>
       </c>
+      <c r="C76" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D76" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E76" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="26" t="s">
         <v>243</v>
       </c>
+      <c r="C77" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D77" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E77" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="26" t="s">
         <v>73</v>
       </c>
+      <c r="C78" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D78" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E78" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="28" t="s">
         <v>244</v>
       </c>
+      <c r="C79" s="25" t="n">
+        <v>5.5267959963E11</v>
+      </c>
+      <c r="D79" s="25" t="n">
+        <v>3.33063389322E11</v>
+      </c>
+      <c r="E79" s="25" t="n">
+        <v>4.15020871201E11</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="26" t="s">
         <v>94</v>
       </c>
+      <c r="C80" s="25" t="n">
+        <v>5.5267959963E11</v>
+      </c>
+      <c r="D80" s="25" t="n">
+        <v>1.58950559122E11</v>
+      </c>
+      <c r="E80" s="25" t="n">
+        <v>4.15020871201E11</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="26" t="s">
         <v>245</v>
       </c>
+      <c r="C81" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D81" s="25" t="n">
+        <v>1.741128302E11</v>
+      </c>
+      <c r="E81" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="28" t="s">
         <v>246</v>
       </c>
+      <c r="C82" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D82" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E82" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="26" t="s">
         <v>247</v>
       </c>
+      <c r="C83" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D83" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E83" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="26" t="s">
         <v>232</v>
       </c>
+      <c r="C84" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D84" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E84" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="26" t="s">
         <v>233</v>
       </c>
+      <c r="C85" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D85" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E85" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="28" t="s">
         <v>248</v>
       </c>
+      <c r="C86" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D86" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E86" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="26" t="s">
         <v>247</v>
       </c>
+      <c r="C87" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D87" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E87" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="26" t="s">
         <v>232</v>
       </c>
+      <c r="C88" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D88" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E88" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="26" t="s">
         <v>233</v>
       </c>
+      <c r="C89" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D89" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E89" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="28" t="s">
         <v>249</v>
       </c>
+      <c r="C90" s="25" t="n">
+        <v>3.569244736E10</v>
+      </c>
+      <c r="D90" s="25" t="n">
+        <v>4.6927385812E10</v>
+      </c>
+      <c r="E90" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="26" t="s">
         <v>250</v>
       </c>
+      <c r="C91" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D91" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E91" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="26" t="s">
         <v>251</v>
       </c>
+      <c r="C92" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D92" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E92" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="26" t="s">
         <v>252</v>
       </c>
+      <c r="C93" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D93" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E93" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="26" t="s">
         <v>253</v>
       </c>
+      <c r="C94" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D94" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E94" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="26" t="s">
         <v>254</v>
       </c>
+      <c r="C95" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D95" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E95" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="26" t="s">
         <v>255</v>
       </c>
+      <c r="C96" s="25" t="n">
+        <v>2.76189307E10</v>
+      </c>
+      <c r="D96" s="25" t="n">
+        <v>4.1369877122E10</v>
+      </c>
+      <c r="E96" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="26" t="s">
         <v>256</v>
       </c>
+      <c r="C97" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D97" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E97" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="26" t="s">
         <v>257</v>
       </c>
+      <c r="C98" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D98" s="25" t="n">
+        <v>9.924186E8</v>
+      </c>
+      <c r="E98" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="26" t="s">
         <v>258</v>
       </c>
+      <c r="C99" s="25" t="n">
+        <v>8.07351666E9</v>
+      </c>
+      <c r="D99" s="25" t="n">
+        <v>4.56509009E9</v>
+      </c>
+      <c r="E99" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="28" t="s">
         <v>89</v>
       </c>
+      <c r="C100" s="25" t="n">
+        <v>4.020777157E9</v>
+      </c>
+      <c r="D100" s="25" t="n">
+        <v>1.10156484493E11</v>
+      </c>
+      <c r="E100" s="25" t="n">
+        <v>2.5638E7</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="26" t="s">
         <v>259</v>
       </c>
+      <c r="C101" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D101" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E101" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="26" t="s">
         <v>260</v>
       </c>
+      <c r="C102" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D102" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E102" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="26" t="s">
         <v>261</v>
       </c>
+      <c r="C103" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D103" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E103" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="26" t="s">
         <v>226</v>
       </c>
+      <c r="C104" s="25" t="n">
+        <v>4.020777157E9</v>
+      </c>
+      <c r="D104" s="25" t="n">
+        <v>1.10156484493E11</v>
+      </c>
+      <c r="E104" s="25" t="n">
+        <v>2.5638E7</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="28" t="s">
         <v>262</v>
       </c>
+      <c r="C105" s="25" t="n">
+        <v>1.0727965218E10</v>
+      </c>
+      <c r="D105" s="25" t="n">
+        <v>2.8628638292E10</v>
+      </c>
+      <c r="E105" s="25" t="n">
+        <v>1.0119188569E10</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="26" t="s">
         <v>263</v>
       </c>
+      <c r="C106" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D106" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E106" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="26" t="s">
         <v>264</v>
       </c>
+      <c r="C107" s="25" t="n">
+        <v>5.7888793E8</v>
+      </c>
+      <c r="D107" s="25" t="n">
+        <v>5.63768016E8</v>
+      </c>
+      <c r="E107" s="25" t="n">
+        <v>5.5470197E8</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="26" t="s">
         <v>265</v>
       </c>
+      <c r="C108" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D108" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E108" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="26" t="s">
         <v>266</v>
       </c>
+      <c r="C109" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D109" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E109" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="26" t="s">
         <v>267</v>
       </c>
+      <c r="C110" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D110" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E110" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="26" t="s">
         <v>268</v>
       </c>
+      <c r="C111" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D111" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E111" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="26" t="s">
         <v>269</v>
       </c>
+      <c r="C112" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D112" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E112" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="26" t="s">
         <v>105</v>
       </c>
+      <c r="C113" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D113" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E113" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="26" t="s">
         <v>226</v>
       </c>
+      <c r="C114" s="25" t="n">
+        <v>1.0149077288E10</v>
+      </c>
+      <c r="D114" s="25" t="n">
+        <v>2.8064870276E10</v>
+      </c>
+      <c r="E114" s="25" t="n">
+        <v>9.564486599E9</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="28" t="s">
         <v>270</v>
       </c>
+      <c r="C115" s="25" t="n">
+        <v>4.842989256E11</v>
+      </c>
+      <c r="D115" s="25" t="n">
+        <v>4.443418686E11</v>
+      </c>
+      <c r="E115" s="25" t="n">
+        <v>4.433186116E11</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="26" t="s">
         <v>271</v>
       </c>
+      <c r="C116" s="25" t="n">
+        <v>4.842989256E11</v>
+      </c>
+      <c r="D116" s="25" t="n">
+        <v>4.443418686E11</v>
+      </c>
+      <c r="E116" s="25" t="n">
+        <v>4.433186116E11</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="26" t="s">
         <v>272</v>
       </c>
+      <c r="C117" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D117" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E117" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="26" t="s">
         <v>273</v>
       </c>
+      <c r="C118" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D118" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E118" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="26" t="s">
         <v>274</v>
       </c>
+      <c r="C119" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D119" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E119" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="26" t="s">
         <v>275</v>
       </c>
+      <c r="C120" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D120" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E120" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="28" t="s">
         <v>113</v>
       </c>
+      <c r="C121" s="25" t="n">
+        <v>6.1935202E11</v>
+      </c>
+      <c r="D121" s="25" t="n">
+        <v>6.1935202E11</v>
+      </c>
+      <c r="E121" s="25" t="n">
+        <v>6.1935202E11</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="26" t="s">
         <v>276</v>
       </c>
+      <c r="C122" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D122" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E122" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="26" t="s">
         <v>277</v>
       </c>
+      <c r="C123" s="25" t="n">
+        <v>6.1935202E11</v>
+      </c>
+      <c r="D123" s="25" t="n">
+        <v>6.1935202E11</v>
+      </c>
+      <c r="E123" s="25" t="n">
+        <v>6.1935202E11</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="28" t="s">
         <v>278</v>
       </c>
+      <c r="C124" s="25" t="n">
+        <v>1.688304904705E12</v>
+      </c>
+      <c r="D124" s="25" t="n">
+        <v>1.583217317468E12</v>
+      </c>
+      <c r="E124" s="25" t="n">
+        <v>7.93626577416E11</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="26" t="s">
         <v>279</v>
       </c>
+      <c r="C125" s="25" t="n">
+        <v>1.688304904705E12</v>
+      </c>
+      <c r="D125" s="25" t="n">
+        <v>1.582191540044E12</v>
+      </c>
+      <c r="E125" s="25" t="n">
+        <v>7.93626577416E11</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="26" t="s">
         <v>280</v>
       </c>
+      <c r="C126" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D126" s="25" t="n">
+        <v>1.025777424E9</v>
+      </c>
+      <c r="E126" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="26" t="s">
         <v>281</v>
       </c>
+      <c r="C127" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D127" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E127" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="28" t="s">
         <v>282</v>
       </c>
+      <c r="C128" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D128" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E128" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="26" t="s">
         <v>283</v>
       </c>
+      <c r="C129" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D129" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E129" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="26" t="s">
         <v>284</v>
       </c>
+      <c r="C130" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D130" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E130" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="26" t="s">
         <v>285</v>
       </c>
+      <c r="C131" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D131" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E131" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="26" t="s">
         <v>286</v>
       </c>
+      <c r="C132" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D132" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E132" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="26" t="s">
         <v>287</v>
       </c>
+      <c r="C133" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D133" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E133" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="26" t="s">
         <v>288</v>
       </c>
+      <c r="C134" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D134" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E134" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="28" t="s">
         <v>289</v>
       </c>
+      <c r="C135" s="25" t="n">
+        <v>1.622733577098E12</v>
+      </c>
+      <c r="D135" s="25" t="n">
+        <v>1.470339741475E12</v>
+      </c>
+      <c r="E135" s="25" t="n">
+        <v>6.97627593369E11</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="26" t="s">
         <v>290</v>
       </c>
+      <c r="C136" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D136" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E136" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="26" t="s">
         <v>291</v>
       </c>
+      <c r="C137" s="25" t="n">
+        <v>1.622733577098E12</v>
+      </c>
+      <c r="D137" s="25" t="n">
+        <v>1.469733728808E12</v>
+      </c>
+      <c r="E137" s="25" t="n">
+        <v>6.97627593369E11</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="26" t="s">
         <v>292</v>
       </c>
+      <c r="C138" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D138" s="25" t="n">
+        <v>6.06012667E8</v>
+      </c>
+      <c r="E138" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="26" t="s">
         <v>293</v>
       </c>
+      <c r="C139" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D139" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E139" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="26" t="s">
         <v>294</v>
       </c>
+      <c r="C140" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D140" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E140" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="26" t="s">
         <v>295</v>
       </c>
+      <c r="C141" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D141" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E141" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="26" t="s">
         <v>296</v>
       </c>
+      <c r="C142" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D142" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E142" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="26" t="s">
         <v>297</v>
       </c>
+      <c r="C143" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D143" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E143" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="28" t="s">
         <v>298</v>
       </c>
+      <c r="C144" s="25" t="n">
+        <v>2.5771502E7</v>
+      </c>
+      <c r="D144" s="25" t="n">
+        <v>3.636061613E9</v>
+      </c>
+      <c r="E144" s="25" t="n">
+        <v>3.0050708E7</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="26" t="s">
         <v>299</v>
       </c>
+      <c r="C145" s="25" t="n">
+        <v>2.5771502E7</v>
+      </c>
+      <c r="D145" s="25" t="n">
+        <v>2.3858199E7</v>
+      </c>
+      <c r="E145" s="25" t="n">
+        <v>3.0050708E7</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="26" t="s">
         <v>300</v>
       </c>
+      <c r="C146" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D146" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E146" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="26" t="s">
         <v>301</v>
       </c>
+      <c r="C147" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D147" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E147" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="26" t="s">
         <v>302</v>
       </c>
+      <c r="C148" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D148" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E148" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="26" t="s">
         <v>303</v>
       </c>
+      <c r="C149" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D149" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E149" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="26" t="s">
         <v>304</v>
       </c>
+      <c r="C150" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D150" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E150" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="26" t="s">
         <v>305</v>
       </c>
+      <c r="C151" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D151" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E151" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="26" t="s">
         <v>306</v>
       </c>
+      <c r="C152" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D152" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E152" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="26" t="s">
         <v>307</v>
       </c>
+      <c r="C153" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D153" s="25" t="n">
+        <v>3.612203414E9</v>
+      </c>
+      <c r="E153" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="28" t="s">
         <v>144</v>
       </c>
+      <c r="C154" s="25" t="n">
+        <v>1.5841096616E10</v>
+      </c>
+      <c r="D154" s="25" t="n">
+        <v>1.284783096E10</v>
+      </c>
+      <c r="E154" s="25" t="n">
+        <v>1.2738566282E10</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="26" t="s">
         <v>308</v>
       </c>
+      <c r="C155" s="25" t="n">
+        <v>1.5841096616E10</v>
+      </c>
+      <c r="D155" s="25" t="n">
+        <v>1.284783096E10</v>
+      </c>
+      <c r="E155" s="25" t="n">
+        <v>1.2738566282E10</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="26" t="s">
         <v>309</v>
       </c>
+      <c r="C156" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D156" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E156" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="26" t="s">
         <v>310</v>
       </c>
+      <c r="C157" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D157" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E157" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="26" t="s">
         <v>311</v>
       </c>
+      <c r="C158" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D158" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E158" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="26" t="s">
         <v>312</v>
       </c>
+      <c r="C159" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D159" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E159" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="26" t="s">
         <v>313</v>
       </c>
+      <c r="C160" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D160" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E160" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="26" t="s">
         <v>314</v>
       </c>
+      <c r="C161" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D161" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E161" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="26" t="s">
         <v>315</v>
       </c>
+      <c r="C162" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D162" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E162" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="28" t="s">
         <v>316</v>
       </c>
+      <c r="C163" s="25" t="n">
+        <v>2.298979646191E12</v>
+      </c>
+      <c r="D163" s="25" t="n">
+        <v>1.397198442135E12</v>
+      </c>
+      <c r="E163" s="25" t="n">
+        <v>7.89659214056E11</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="26" t="s">
         <v>317</v>
       </c>
+      <c r="C164" s="25" t="n">
+        <v>4.21917878982E11</v>
+      </c>
+      <c r="D164" s="25" t="n">
+        <v>3.80616916252E11</v>
+      </c>
+      <c r="E164" s="25" t="n">
+        <v>3.39135229724E11</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="26" t="s">
         <v>318</v>
       </c>
+      <c r="C165" s="25" t="n">
+        <v>1.4593734668E11</v>
+      </c>
+      <c r="D165" s="25" t="n">
+        <v>1.95908363747E11</v>
+      </c>
+      <c r="E165" s="25" t="n">
+        <v>1.18986449182E11</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="26" t="s">
         <v>319</v>
       </c>
+      <c r="C166" s="25" t="n">
+        <v>5.296663096E10</v>
+      </c>
+      <c r="D166" s="25" t="n">
+        <v>5.323906759E10</v>
+      </c>
+      <c r="E166" s="25" t="n">
+        <v>5.4748965028E10</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="26" t="s">
         <v>320</v>
       </c>
+      <c r="C167" s="25" t="n">
+        <v>4.07855677335E11</v>
+      </c>
+      <c r="D167" s="25" t="n">
+        <v>5.36635919695E11</v>
+      </c>
+      <c r="E167" s="25" t="n">
+        <v>3.93922700134E11</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="26" t="s">
         <v>321</v>
       </c>
+      <c r="C168" s="25" t="n">
+        <v>1.270302112234E12</v>
+      </c>
+      <c r="D168" s="25" t="n">
+        <v>2.30798174851E11</v>
+      </c>
+      <c r="E168" s="25" t="n">
+        <v>-1.17134130012E11</v>
+      </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="7" t="s">
@@ -6576,6 +8254,9 @@
       <c r="B176" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C10:E10"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="A174" r:id="rId1" display="https://www.vietcap.com.vn/" xr:uid="{D6386FB0-752A-884E-829A-45A876D98EB2}"/>
     <hyperlink ref="A175" r:id="rId2" display="mailto:info@vietcap.com.vn" xr:uid="{E36736AE-799A-544C-B344-CBB879500D03}"/>

--- a/data/TD6.xlsx
+++ b/data/TD6.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>17/12/2025</t>
+    <t>21/12/2025</t>
   </si>
   <si>
     <t>TD6</t>

--- a/data/TD6.xlsx
+++ b/data/TD6.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>21/12/2025</t>
+    <t>23/12/2025</t>
   </si>
   <si>
     <t>TD6</t>

--- a/data/TD6.xlsx
+++ b/data/TD6.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>23/12/2025</t>
+    <t>25/12/2025</t>
   </si>
   <si>
     <t>TD6</t>
